--- a/Artifact/IoT_Projections.xlsx
+++ b/Artifact/IoT_Projections.xlsx
@@ -21,6 +21,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Consumer</t>
+  </si>
+  <si>
+    <t>Business: Cross-Inustry</t>
+  </si>
+  <si>
+    <t>Business: Vertical-Specific</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -609,7 +623,378 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>IoT By Group as of 2020</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$19:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Consumer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Business: Cross-Inustry</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Business: Vertical-Specific</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13509</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4408</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2880</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E6DB-4A6E-B8CC-0948EADA14BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1152,20 +1537,551 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1184,35 +2100,65 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>317389</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>107681</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>355489</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>183881</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2686050"/>
+          <a:off x="2476500" y="6191250"/>
           <a:ext cx="4584589" cy="2755631"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1488,10 +2434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1584,6 +2530,30 @@
         <v>75.44</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>13509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>4408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>2880</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
